--- a/leads-database.xlsx
+++ b/leads-database.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunvyas/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>Name Of The Client</t>
   </si>
@@ -432,6 +424,18 @@
   </si>
   <si>
     <t>TULIPGROUP.COM</t>
+  </si>
+  <si>
+    <t>Anil Ram</t>
+  </si>
+  <si>
+    <t>Vytech</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>amanil925@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -562,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -597,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -774,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,26 +786,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="24" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -854,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -880,7 +884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -906,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -932,7 +936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -958,7 +962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -984,7 +988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>129</v>
       </c>
@@ -1476,6 +1480,23 @@
       </c>
       <c r="H26" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9558027448</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1511,6 +1532,7 @@
     <hyperlink ref="E24" r:id="rId29"/>
     <hyperlink ref="E25" r:id="rId30"/>
     <hyperlink ref="E26" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leads-database.xlsx
+++ b/leads-database.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunvyas/Desktop/this-is-test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -426,9 +434,6 @@
     <t>TULIPGROUP.COM</t>
   </si>
   <si>
-    <t>Anil Ram</t>
-  </si>
-  <si>
     <t>Vytech</t>
   </si>
   <si>
@@ -436,6 +441,9 @@
   </si>
   <si>
     <t>amanil925@gmail.com</t>
+  </si>
+  <si>
+    <t>Anil Ram 1</t>
   </si>
 </sst>
 </file>
@@ -778,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,24 +796,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,7 +839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -858,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -884,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -910,7 +918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -936,7 +944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -962,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -988,7 +996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
@@ -1300,7 +1308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>106</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -1378,7 +1386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>124</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>129</v>
       </c>
@@ -1482,21 +1490,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D32" s="4">
         <v>9558027448</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
